--- a/biology/Botanique/Psoraleeae/Psoraleeae.xlsx
+++ b/biology/Botanique/Psoraleeae/Psoraleeae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Psoraleeae sont une tribu de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, qui compte une dizaine de genres.
-Certains auteurs classent cette tribu au sein de la tribu des Phaseoleae, qui présente le même type de nodosités à croissance déterminées et exportant des uréides[2].
+Certains auteurs classent cette tribu au sein de la tribu des Phaseoleae, qui présente le même type de nodosités à croissance déterminées et exportant des uréides.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (13 août 2018)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (13 août 2018) :
 Bituminaria Heist. ex Fabr., 1759
 Cullen Medik.
 Hoita Rydb.
